--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="273">
   <si>
     <t xml:space="preserve">timestamp</t>
   </si>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">B20170</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Science</t>
+    <t xml:space="preserve">DataScience</t>
   </si>
   <si>
     <t xml:space="preserve">b20234@students.iitmandi.ac.in</t>
@@ -671,9 +671,6 @@
   </si>
   <si>
     <t xml:space="preserve">B20171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataScience</t>
   </si>
   <si>
     <t xml:space="preserve">b20184@students.iitmandi.ac.in</t>
@@ -1060,12 +1057,12 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.29"/>
@@ -2111,7 +2108,7 @@
         <v>216</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,16 +2116,16 @@
         <v>44193.0267220023</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>19</v>
@@ -2139,16 +2136,16 @@
         <v>44193.1160575579</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>41</v>
@@ -2159,16 +2156,16 @@
         <v>44193.1337753125</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>41</v>
@@ -2179,16 +2176,16 @@
         <v>44193.4233146875</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>19</v>
@@ -2199,16 +2196,16 @@
         <v>44193.4246018866</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>87</v>
@@ -2219,16 +2216,16 @@
         <v>44193.466454456</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>41</v>
@@ -2239,19 +2236,19 @@
         <v>44193.4795220139</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="F59" s="3" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,16 +2256,16 @@
         <v>44193.8552397222</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>10</v>
@@ -2279,16 +2276,16 @@
         <v>44193.9101399884</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>87</v>
@@ -2299,16 +2296,16 @@
         <v>44194.4473557639</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>41</v>
@@ -2319,16 +2316,16 @@
         <v>44194.7378971065</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="E63" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>87</v>
@@ -2339,16 +2336,16 @@
         <v>44194.8374963079</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>28</v>
@@ -2359,16 +2356,16 @@
         <v>44194.8559043519</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="E65" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>41</v>
@@ -2379,16 +2376,16 @@
         <v>44194.8799323032</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>10</v>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="422">
   <si>
     <t xml:space="preserve">timestamp</t>
   </si>
@@ -839,6 +839,453 @@
   </si>
   <si>
     <t xml:space="preserve">B20280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 11:09:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20075@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhay Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 2:22:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20165@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prateeksha Pal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/506844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 9:22:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20132@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saransh bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 10:11:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20255@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/506460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 10:32:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20191@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepak Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/506805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 10:33:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20185@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/506436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 10:38:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20131@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanjeet Choudhary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 10:45:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20127@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritam Chakraborty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/506463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 11:02:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20246@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 11:03:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20164@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prateek Raj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/509156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 11:16:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20264@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohan Pande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 11:22:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20142@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinayak Sachan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/506814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 11:25:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20080@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20080 Amrendra Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 14:54:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20289@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemant chauhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/509180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 11:44:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20225@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramay Maheshwari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 14:31:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20172@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vivek jaiswal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/506733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 12:09:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20302@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20302 Murtaza Mehdi Hasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 12:10:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20300@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehul jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 13:18:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20157@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD Arif </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 13:10:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20126@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rijul Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/509071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 14:24:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20213@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20213 MAYANK KAKKAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/506543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 14:38:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20135@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shivam middha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 14:55:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20287@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshit Agarwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 15:18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20168@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham Shukla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 15:21:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20313@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravi Ranjan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 15:26:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20025@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishesh Soni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/506571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 16:43:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20197@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaurav Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 16:53:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20056@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIKHIL UJJWAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/507177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 16:58:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20065@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 17:06:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20138@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titiksha Behal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20138</t>
   </si>
 </sst>
 </file>
@@ -944,7 +1391,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -975,6 +1422,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1054,15 +1505,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="D100" activeCellId="0" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.29"/>
@@ -2389,6 +2840,606 @@
       </c>
       <c r="F66" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2458,6 +3509,36 @@
     <hyperlink ref="D64" r:id="rId63" display="https://www.urionlinejudge.com.br/judge/en/profile/508785"/>
     <hyperlink ref="D65" r:id="rId64" display="https://www.urionlinejudge.com.br/judge/en/profile/508211"/>
     <hyperlink ref="D66" r:id="rId65" display="https://www.urionlinejudge.com.br/judge/en/profile/509090"/>
+    <hyperlink ref="D67" r:id="rId66" display="https://www.urionlinejudge.com.br/judge/en/profile/508280"/>
+    <hyperlink ref="D68" r:id="rId67" display="https://www.urionlinejudge.com.br/judge/en/profile/506844"/>
+    <hyperlink ref="D69" r:id="rId68" display="https://www.urionlinejudge.com.br/judge/en/profile/508300"/>
+    <hyperlink ref="D70" r:id="rId69" display="https://www.urionlinejudge.com.br/judge/en/profile/506460"/>
+    <hyperlink ref="D71" r:id="rId70" display="https://www.urionlinejudge.com.br/judge/en/profile/506805"/>
+    <hyperlink ref="D72" r:id="rId71" display="https://www.urionlinejudge.com.br/judge/en/profile/506436"/>
+    <hyperlink ref="D73" r:id="rId72" display="https://www.urionlinejudge.com.br/judge/en/profile/508797"/>
+    <hyperlink ref="D74" r:id="rId73" display="https://www.urionlinejudge.com.br/judge/en/profile/506463"/>
+    <hyperlink ref="D75" r:id="rId74" display="https://www.urionlinejudge.com.br/judge/en/profile/508091"/>
+    <hyperlink ref="D76" r:id="rId75" display="https://www.urionlinejudge.com.br/judge/en/profile/509156"/>
+    <hyperlink ref="D77" r:id="rId76" display="https://www.urionlinejudge.com.br/judge/en/profile/508143"/>
+    <hyperlink ref="D78" r:id="rId77" display="https://www.urionlinejudge.com.br/judge/en/profile/506814"/>
+    <hyperlink ref="D79" r:id="rId78" display="https://www.urionlinejudge.com.br/judge/en/profile/508349"/>
+    <hyperlink ref="D80" r:id="rId79" display="https://www.urionlinejudge.com.br/judge/en/profile/509180"/>
+    <hyperlink ref="D81" r:id="rId80" display="https://www.urionlinejudge.com.br/judge/en/profile/508297"/>
+    <hyperlink ref="D82" r:id="rId81" display="https://www.urionlinejudge.com.br/judge/en/profile/506733"/>
+    <hyperlink ref="D83" r:id="rId82" display="https://www.urionlinejudge.com.br/judge/en/profile/508265"/>
+    <hyperlink ref="D84" r:id="rId83" display="https://www.urionlinejudge.com.br/judge/en/profile/508739"/>
+    <hyperlink ref="D85" r:id="rId84" display="https://www.urionlinejudge.com.br/judge/en/profile/508798"/>
+    <hyperlink ref="D86" r:id="rId85" display="https://www.urionlinejudge.com.br/judge/en/profile/509071"/>
+    <hyperlink ref="D87" r:id="rId86" display="https://www.urionlinejudge.com.br/judge/en/profile/506543"/>
+    <hyperlink ref="D88" r:id="rId87" display="https://www.urionlinejudge.com.br/judge/en/profile/508130"/>
+    <hyperlink ref="D89" r:id="rId88" display="https://www.urionlinejudge.com.br/judge/en/profile/508313"/>
+    <hyperlink ref="D90" r:id="rId89" display="https://www.urionlinejudge.com.br/judge/en/profile/508314"/>
+    <hyperlink ref="D91" r:id="rId90" display="https://www.urionlinejudge.com.br/judge/en/profile/508279"/>
+    <hyperlink ref="D92" r:id="rId91" display="https://www.urionlinejudge.com.br/judge/en/profile/506571"/>
+    <hyperlink ref="D93" r:id="rId92" display="https://www.urionlinejudge.com.br/judge/en/profile/508112"/>
+    <hyperlink ref="D94" r:id="rId93" display="https://www.urionlinejudge.com.br/judge/en/profile/507177"/>
+    <hyperlink ref="D95" r:id="rId94" display="https://www.urionlinejudge.com.br/judge/en/profile/508087"/>
+    <hyperlink ref="D96" r:id="rId95" display="https://www.urionlinejudge.com.br/judge/en/profile/508249"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="437">
   <si>
     <t xml:space="preserve">timestamp</t>
   </si>
@@ -1286,6 +1286,51 @@
   </si>
   <si>
     <t xml:space="preserve">B20138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 18:26:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20167@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20167 Saurav Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 18:31:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20121@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSHKAR PATEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 20:20:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20286@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20286 Dishti Oberai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/506725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20286</t>
   </si>
 </sst>
 </file>
@@ -1505,15 +1550,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D100" activeCellId="0" sqref="D100"/>
+      <selection pane="bottomLeft" activeCell="F103" activeCellId="0" sqref="F103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.29"/>
@@ -3440,6 +3485,66 @@
       </c>
       <c r="F96" s="8" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3539,6 +3644,9 @@
     <hyperlink ref="D94" r:id="rId93" display="https://www.urionlinejudge.com.br/judge/en/profile/507177"/>
     <hyperlink ref="D95" r:id="rId94" display="https://www.urionlinejudge.com.br/judge/en/profile/508087"/>
     <hyperlink ref="D96" r:id="rId95" display="https://www.urionlinejudge.com.br/judge/en/profile/508249"/>
+    <hyperlink ref="D97" r:id="rId96" display="https://www.urionlinejudge.com.br/judge/en/profile/508594"/>
+    <hyperlink ref="D98" r:id="rId97" display="https://www.urionlinejudge.com.br/judge/en/profile/508237"/>
+    <hyperlink ref="D99" r:id="rId98" display="https://www.urionlinejudge.com.br/judge/en/profile/506725"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="462">
   <si>
     <t xml:space="preserve">timestamp</t>
   </si>
@@ -1331,6 +1331,81 @@
   </si>
   <si>
     <t xml:space="preserve">B20286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/31/2020 2:54:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20108@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanchan Padvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/509219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/30/2020 21:24:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20133@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shailesh Rathod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/509167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/31/2020 1:02:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20124@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20124 Rajeev Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/509266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/31/2020 11:46:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20162@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavitra Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/509047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/31/2020 13:50:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20097@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIYA ASHISH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20097</t>
   </si>
 </sst>
 </file>
@@ -1550,15 +1625,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F103" activeCellId="0" sqref="F103"/>
+      <selection pane="bottomLeft" activeCell="E101" activeCellId="0" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.29"/>
@@ -3545,6 +3620,106 @@
       </c>
       <c r="F99" s="8" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3647,6 +3822,11 @@
     <hyperlink ref="D97" r:id="rId96" display="https://www.urionlinejudge.com.br/judge/en/profile/508594"/>
     <hyperlink ref="D98" r:id="rId97" display="https://www.urionlinejudge.com.br/judge/en/profile/508237"/>
     <hyperlink ref="D99" r:id="rId98" display="https://www.urionlinejudge.com.br/judge/en/profile/506725"/>
+    <hyperlink ref="D100" r:id="rId99" display="https://www.urionlinejudge.com.br/judge/en/profile/509219"/>
+    <hyperlink ref="D101" r:id="rId100" display="https://www.urionlinejudge.com.br/judge/en/profile/509167"/>
+    <hyperlink ref="D102" r:id="rId101" display="https://www.urionlinejudge.com.br/judge/en/profile/509266"/>
+    <hyperlink ref="D103" r:id="rId102" display="https://www.urionlinejudge.com.br/judge/en/profile/509047"/>
+    <hyperlink ref="D104" r:id="rId103" display="https://www.urionlinejudge.com.br/judge/en/profile/508228"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="466">
   <si>
     <t xml:space="preserve">timestamp</t>
   </si>
@@ -1406,15 +1406,28 @@
   </si>
   <si>
     <t xml:space="preserve">B20097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20314@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohan Bharti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/508146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20314</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy\ hh:mm"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1511,7 +1524,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1545,6 +1558,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1625,15 +1642,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E101" activeCellId="0" sqref="E101"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G101" activeCellId="0" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.29"/>
@@ -3720,6 +3737,26 @@
       </c>
       <c r="F104" s="8" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="n">
+        <v>44197.0350925926</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3827,6 +3864,7 @@
     <hyperlink ref="D102" r:id="rId101" display="https://www.urionlinejudge.com.br/judge/en/profile/509266"/>
     <hyperlink ref="D103" r:id="rId102" display="https://www.urionlinejudge.com.br/judge/en/profile/509047"/>
     <hyperlink ref="D104" r:id="rId103" display="https://www.urionlinejudge.com.br/judge/en/profile/508228"/>
+    <hyperlink ref="D105" r:id="rId104" display="https://www.urionlinejudge.com.br/judge/en/profile/508146"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="470">
   <si>
     <t xml:space="preserve">timestamp</t>
   </si>
@@ -1418,6 +1418,18 @@
   </si>
   <si>
     <t xml:space="preserve">B20314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20098@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garvit Verma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/507656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20098</t>
   </si>
 </sst>
 </file>
@@ -1642,15 +1654,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G101" activeCellId="0" sqref="G101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D111" activeCellId="0" sqref="D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.29"/>
@@ -3757,6 +3769,26 @@
       </c>
       <c r="F105" s="8" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="n">
+        <v>44197.7956481481</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3865,6 +3897,7 @@
     <hyperlink ref="D103" r:id="rId102" display="https://www.urionlinejudge.com.br/judge/en/profile/509047"/>
     <hyperlink ref="D104" r:id="rId103" display="https://www.urionlinejudge.com.br/judge/en/profile/508228"/>
     <hyperlink ref="D105" r:id="rId104" display="https://www.urionlinejudge.com.br/judge/en/profile/508146"/>
+    <hyperlink ref="D106" r:id="rId105" display="https://www.urionlinejudge.com.br/judge/en/profile/507656"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="490">
   <si>
     <t xml:space="preserve">timestamp</t>
   </si>
@@ -1430,6 +1430,66 @@
   </si>
   <si>
     <t xml:space="preserve">B20098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20294@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kishan Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/509312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20325@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vastav Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/509467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20115@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NehaKumari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/509473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20009@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mihir Gadhvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/509475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b20094@students.iitmandi.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devansh Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urionlinejudge.com.br/judge/en/profile/509520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B20094</t>
   </si>
 </sst>
 </file>
@@ -1654,15 +1714,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D111" activeCellId="0" sqref="D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.29"/>
@@ -3791,6 +3851,108 @@
         <v>41</v>
       </c>
     </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="n">
+        <v>44228.8819907407</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="n">
+        <v>44228.578912037</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="n">
+        <v>44228.7519328704</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="n">
+        <v>44228.7011574074</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="n">
+        <v>44228.9794212963</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://www.urionlinejudge.com.br/judge/en/profile/506744"/>
@@ -3898,6 +4060,11 @@
     <hyperlink ref="D104" r:id="rId103" display="https://www.urionlinejudge.com.br/judge/en/profile/508228"/>
     <hyperlink ref="D105" r:id="rId104" display="https://www.urionlinejudge.com.br/judge/en/profile/508146"/>
     <hyperlink ref="D106" r:id="rId105" display="https://www.urionlinejudge.com.br/judge/en/profile/507656"/>
+    <hyperlink ref="D107" r:id="rId106" display="https://www.urionlinejudge.com.br/judge/en/profile/509312"/>
+    <hyperlink ref="D108" r:id="rId107" display="https://www.urionlinejudge.com.br/judge/en/profile/509467"/>
+    <hyperlink ref="D109" r:id="rId108" display="https://www.urionlinejudge.com.br/judge/en/profile/509473"/>
+    <hyperlink ref="D110" r:id="rId109" display="https://www.urionlinejudge.com.br/judge/en/profile/509475"/>
+    <hyperlink ref="D111" r:id="rId110" display="https://www.urionlinejudge.com.br/judge/en/profile/509520"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
